--- a/pred_ohlcv/54_21/2020-01-16 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-26344466.70169999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-27052235.47539999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-27609817.19529999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-29973259.9408</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-29897339.0101</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-30250885.5172</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-28271564.5363</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-28916742.95169999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-27336884.4832</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-27336884.4832</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-27418500.44349999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-26690053.22819999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-25841812.10119999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-26002307.77819999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-25196961.81539999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-25193826.50259999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-25263826.50259999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-25263826.50259999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-25928393.79059999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-25928393.79059999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-25928393.79059999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-28512094.92689999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-28512094.92689999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-28391459.98039999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-28322890.48149999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-30323892.81769999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-31788268.98779999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-32227030.09919999</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-32227030.09919999</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-33171517.73929999</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-33107930.18179999</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-33107930.18179999</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-33107930.18179999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-37677702.03809999</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-35174981.71902512</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-35174981.71902512</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-35092113.92042512</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-34609272.60642511</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-34609272.60642511</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-34609272.60642511</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-35128987.36832511</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-35086717.18472511</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-35086717.18472511</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-35118340.45982511</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-32905641.55522511</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-32870015.89812511</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-32391571.57772511</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-32391571.57772511</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-33096777.40242511</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-27690204.83082511</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-26918313.03672511</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-26918313.03672511</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-27286536.87192511</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-27286536.87192511</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-27284538.87192511</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-27171228.16862511</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-27171228.16862511</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-27171228.16862511</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-27171228.16862511</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-27186721.47392511</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-27491398.96172511</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-27531701.39392511</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-27576135.58462511</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-27575535.58462511</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-27575235.58462511</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-27575235.58462511</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-28375235.58462511</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-25674981.70602511</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-25854147.36272511</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-26260748.04552511</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-26260748.04552511</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-26260526.04552511</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-26262692.04552511</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-26488324.16642511</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-26402248.82972511</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-26440012.4524251</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-26440012.4524251</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-26386688.7079251</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-26399167.5718251</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-26388202.4357251</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-26388202.4357251</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-26388202.4357251</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-26541424.2535251</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-26551637.2786251</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-26554137.2786251</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-26441935.9150251</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-26441935.9150251</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-26443267.9150251</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-26455420.5401251</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-26455420.5401251</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-26759532.9135251</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-26334609.2607251</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-26334609.2607251</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-26334309.2607251</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-26335041.2607251</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-26337341.2607251</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-26337341.2607251</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-74943181.82853329</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-80254804.7488333</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-80707003.92193329</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-81096029.74643329</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-81096029.74643329</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-102952948.2102555</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-97802367.52101612</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-98033800.85421611</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-97719694.8350171</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-97697880.6569286</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-98882788.48832861</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-99186377.4221286</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-117091640.0262634</v>
       </c>
       <c r="H845">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-116493022.6455635</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-116409366.8950635</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-116408210.8426635</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-116408210.8426635</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-116454882.1858635</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-123931700.2353314</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-124608954.5866314</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-122176078.3218635</v>
       </c>
       <c r="H868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-122175634.3218635</v>
       </c>
       <c r="H869">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-122798727.8766636</v>
       </c>
       <c r="H872">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-122059232.9407635</v>
       </c>
       <c r="H873">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-122046203.7504635</v>
       </c>
       <c r="H874">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-122046203.7504635</v>
       </c>
       <c r="H875">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-122026642.9446635</v>
       </c>
       <c r="H876">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-123095765.9731635</v>
       </c>
       <c r="H877">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-121499379.7625635</v>
       </c>
       <c r="H878">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-121428165.4535635</v>
       </c>
       <c r="H879">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-121193530.2148635</v>
       </c>
       <c r="H880">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-121497306.2121635</v>
       </c>
       <c r="H881">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-121496806.2121635</v>
       </c>
       <c r="H882">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-121497344.8195635</v>
       </c>
       <c r="H884">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-121498586.1525635</v>
       </c>
       <c r="H885">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-121498348.1525635</v>
       </c>
       <c r="H886">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-121498348.1525635</v>
       </c>
       <c r="H887">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-120536431.1434635</v>
       </c>
       <c r="H888">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-120515002.1434635</v>
       </c>
       <c r="H889">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-120515002.1434635</v>
       </c>
       <c r="H890">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-120510184.1434635</v>
       </c>
       <c r="H891">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-120561528.8365635</v>
       </c>
       <c r="H892">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-120291091.9322635</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-120765875.0835635</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-120765875.0835635</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-122141400.2254635</v>
       </c>
       <c r="H896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-121793838.0485635</v>
       </c>
       <c r="H897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-122349787.3175635</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-122347343.3175635</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-122347643.3175635</v>
       </c>
       <c r="H900">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-122347643.3175635</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-121085829.6941635</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-120749000.6753602</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-120631774.5541635</v>
       </c>
       <c r="H904">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-120300129.0562635</v>
       </c>
       <c r="H905">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-122093964.3778458</v>
       </c>
       <c r="H908">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-117826599.6294458</v>
       </c>
       <c r="H909">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-119694462.1114458</v>
       </c>
       <c r="H911">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-120220826.0285458</v>
       </c>
       <c r="H912">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-121063512.2796458</v>
       </c>
       <c r="H913">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-121063282.2796458</v>
       </c>
       <c r="H914">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-121146517.4285458</v>
       </c>
       <c r="H915">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-120313262.8273458</v>
       </c>
       <c r="H916">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-120313032.8273458</v>
       </c>
       <c r="H917">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-121561393.8647459</v>
       </c>
       <c r="H918">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-119855578.4887459</v>
       </c>
       <c r="H919">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-119855578.4887459</v>
       </c>
       <c r="H920">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-119855811.4887459</v>
       </c>
       <c r="H921">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-119855348.4887459</v>
       </c>
       <c r="H922">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-119854655.4887459</v>
       </c>
       <c r="H923">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-119759633.3137459</v>
       </c>
       <c r="H925">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-119794219.0528459</v>
       </c>
       <c r="H926">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-119793758.0528459</v>
       </c>
       <c r="H927">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-119793528.0528459</v>
       </c>
       <c r="H928">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-120030499.1346458</v>
       </c>
       <c r="H930">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-120565441.1941458</v>
       </c>
       <c r="H931">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-122362205.2459458</v>
       </c>
       <c r="H932">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-120998904.5028458</v>
       </c>
       <c r="H933">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-120998904.5028458</v>
       </c>
       <c r="H934">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-120962594.8652458</v>
       </c>
       <c r="H935">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-120963538.7531458</v>
       </c>
       <c r="H936">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-120962388.7531458</v>
       </c>
       <c r="H937">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-120962619.7531458</v>
       </c>
       <c r="H938">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-120949105.8294458</v>
       </c>
       <c r="H939">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-121053047.2117458</v>
       </c>
       <c r="H940">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-121052110.2117458</v>
       </c>
       <c r="H941">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-121032110.2117458</v>
       </c>
       <c r="H942">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-121032834.2117458</v>
       </c>
       <c r="H943">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-120888076.8075458</v>
       </c>
       <c r="H945">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-120888346.8075458</v>
       </c>
       <c r="H946">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-120530319.3890458</v>
       </c>
       <c r="H951">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-120361720.3890458</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-120280941.2620458</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-119997261.2608987</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-119997261.2608987</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-119376395.7821714</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-119376395.7821714</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-119376395.7822441</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-120044468.8875441</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-117719091.8467634</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-117518848.9070635</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-117275695.3503634</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-116945681.4284634</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-114711816.5677422</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-118265536.4867789</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-111052706.3887789</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-107743683.1071789</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-105282160.6525789</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-110770321.7548603</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-110869256.9091603</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-110836233.4937603</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-111378811.7837603</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-111533175.3433603</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-110984122.4597223</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-110984122.4597223</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-110878167.5432223</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-111122152.7629843</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-111122152.7629843</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-26344466.70169999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-27052235.47539999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-27609817.19529999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-29973259.9408</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-29897339.0101</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-30250885.5172</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-28271564.5363</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-28916742.95169999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-27336884.4832</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-27336884.4832</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-27418500.44349999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-26690053.22819999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-25841812.10119999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-26002307.77819999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-25196961.81539999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-25193826.50259999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-25263826.50259999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-25263826.50259999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-25928393.79059999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-25928393.79059999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-25928393.79059999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-28512094.92689999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-28512094.92689999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-28391459.98039999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-28322890.48149999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-30323892.81769999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-31788268.98779999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-32227030.09919999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-32227030.09919999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-33171517.73929999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-33107930.18179999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-33107930.18179999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-33191137.61779999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-33191137.61779999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-33284236.72949999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-33234236.72949999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-33188683.23199999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-34973438.93549999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-34972929.29479999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-34572590.10169999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-34572590.10169999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-34572590.10169999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-34572590.10169999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-37677702.03809999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-37526523.48999999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-37839945.87369999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-37819945.87369999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-38165197.26409999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-38165197.26409999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-38161149.67609999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-38201984.48379999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-38201984.48379999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-40170377.18029999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-43728250.66319999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-43728250.66319999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-36802618.28092512</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-35174981.71902512</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-35174981.71902512</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-26918313.03672511</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-27286536.87192511</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-27286536.87192511</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-27284538.87192511</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-27171228.16862511</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-27171228.16862511</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-27171228.16862511</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-27171228.16862511</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-27186721.47392511</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-27491398.96172511</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-27531701.39392511</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-27581429.50322511</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-27603760.50322511</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-27603760.50322511</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-27614744.21062511</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-27614144.21062511</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-27614444.21062511</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-27547381.66832511</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-27576135.58462511</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-27575535.58462511</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-27575235.58462511</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-27575235.58462511</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-28375235.58462511</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-28381732.66312511</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-28409134.64792511</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-28074417.20692511</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-29327109.48942511</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-28975137.95602511</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-28976469.95602511</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-28990816.98552511</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-28777816.66042511</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-28778316.66042511</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-28780316.66042511</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-28780316.66042511</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-28780316.66042511</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-28780316.66042511</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-28780316.66042511</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-28781260.66042511</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-28779928.66042511</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-28793471.53712511</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-25461944.74932511</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-25295436.19252511</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-24581271.39432511</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-25674981.70602511</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-25674981.70602511</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-25674481.70602511</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-25833860.03152511</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-25854147.36272511</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-27404232.16002511</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-26197650.36822511</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-26221415.04552511</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-26260748.04552511</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-26260748.04552511</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-26260526.04552511</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-26262692.04552511</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-26594215.23562511</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-26594215.23562511</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-26594215.23562511</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-26594215.23562511</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-26594215.23562511</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-26594215.23562511</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-26488324.16642511</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-26488324.16642511</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-26402248.82972511</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-26440012.4524251</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-26440012.4524251</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-26386688.7079251</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-26399167.5718251</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-26388202.4357251</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-26388202.4357251</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-26388202.4357251</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-26541424.2535251</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-26551637.2786251</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-26554137.2786251</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-26441935.9150251</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-26441935.9150251</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-26443267.9150251</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-26455420.5401251</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-26455420.5401251</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-26759532.9135251</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-26334609.2607251</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-26334609.2607251</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-26334309.2607251</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-26335041.2607251</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-26337341.2607251</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-26337341.2607251</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-26749640.6083251</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-28337665.4391251</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-30662835.4071251</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-74943181.82853329</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-80254804.7488333</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-80707003.92193329</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-81096029.74643329</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-81096029.74643329</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-97802367.52101612</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-98033800.85421611</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-97719694.8350171</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-97697880.6569286</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-98882788.48832861</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-99186377.4221286</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-116502384.2854635</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-116493022.6455635</v>
       </c>
       <c r="H848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-116409366.8950635</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-116408210.8426635</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-116408210.8426635</v>
       </c>
       <c r="H851">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-116454882.1858635</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-121723172.5936635</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-123931700.2353314</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-124608954.5866314</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-124079955.5981314</v>
       </c>
       <c r="H858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-124079511.5981314</v>
       </c>
       <c r="H859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-124079511.5981314</v>
       </c>
       <c r="H860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-124079511.5981314</v>
       </c>
       <c r="H861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-124433138.9234314</v>
       </c>
       <c r="H862">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-122170963.0701635</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-122177014.9617635</v>
       </c>
       <c r="H867">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-122059232.9407635</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-122046203.7504635</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-123095765.9731635</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-121499379.7625635</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-121428165.4535635</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-121193530.2148635</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-121497306.2121635</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-121496806.2121635</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-121497581.8195635</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-121497344.8195635</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-121498586.1525635</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-121498348.1525635</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-121498348.1525635</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-120536431.1434635</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-120515002.1434635</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-120515002.1434635</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-120510184.1434635</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-120561528.8365635</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-120291091.9322635</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-120765875.0835635</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-120765875.0835635</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-122141400.2254635</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-121793838.0485635</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-122349787.3175635</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-122347343.3175635</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-122347643.3175635</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-122347643.3175635</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-121085829.6941635</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-120749000.6753602</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-120631774.5541635</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-120300129.0562635</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-122733637.2552458</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-122733387.2552458</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-122093964.3778458</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-117826599.6294458</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-119630815.4096458</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-119694462.1114458</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-120220826.0285458</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-121063512.2796458</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-121063282.2796458</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-121146517.4285458</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-120313262.8273458</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-120313032.8273458</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-121561393.8647459</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-119855578.4887459</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-119855578.4887459</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-119855811.4887459</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-119855348.4887459</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-119854655.4887459</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-119854887.4887459</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-119759633.3137459</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-119794219.0528459</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-119793758.0528459</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-119793528.0528459</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-120030499.1346458</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-120030499.1346458</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-120565441.1941458</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-122362205.2459458</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-120998904.5028458</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-120998904.5028458</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-120962594.8652458</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-120963538.7531458</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-120962388.7531458</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-120962619.7531458</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-120949105.8294458</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-121053047.2117458</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-121052110.2117458</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-121032110.2117458</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-121032834.2117458</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-121033605.2117458</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-120888076.8075458</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-120888346.8075458</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-120530319.3890458</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-118265536.4867789</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-111052706.3887789</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-107743683.1071789</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-108457862.8872789</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-109143131.4285789</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-110770321.7548603</v>
       </c>
       <c r="H1012">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-110869256.9091603</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-110836233.4937603</v>
       </c>
       <c r="H1014">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-111378811.7837603</v>
       </c>
       <c r="H1015">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-111533175.3433603</v>
       </c>
       <c r="H1017">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-110984122.4597223</v>
       </c>
       <c r="H1018">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-110984122.4597223</v>
       </c>
       <c r="H1019">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-110878167.5432223</v>
       </c>
       <c r="H1020">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-111122152.7629843</v>
       </c>
       <c r="H1022">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-111122152.7629843</v>
       </c>
       <c r="H1023">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
